--- a/docs/odh/shr-core-Laterality-model.xlsx
+++ b/docs/odh/shr-core-Laterality-model.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="47">
   <si>
     <t>Path</t>
   </si>
@@ -134,7 +134,14 @@
     <t>*</t>
   </si>
   <si>
-    <t>Body side of the body location, if needed to distinguish from a similar location on the other side of the body.</t>
+    <t>Body side of the body location, if needed to distinguish from a similar location on the other side of the body.
+The laterality element is part of BodyLocation, a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
++ Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
++ Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
++ Relation to landmark: The location relative to a landmark is specified by:
+- Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
+- Specifying the direction and distance from the landmark to the body location.
+Note that BodyLocation is a data type (a reusable structure), not a stand-alone entity. The concept is similar to how a postal address can apply to a person, location, or organization. This contrasts with FHIR's stand-alone BodySite (aka BodyStructure in r4) which 'is not ... intended for describing the type of anatomical location but rather a specific body site on a specific patient' (FHIR 3.5).</t>
   </si>
   <si>
     <t>shr-core-Laterality-model.value</t>
@@ -150,10 +157,20 @@
     <t>Code representing body side of the body location, if needed to distinguish from a similar location on the other side of the body.</t>
   </si>
   <si>
+    <t>Code representing body side of the body location, if needed to distinguish from a similar location on the other side of the body.
+The laterality element is part of BodyLocation, a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
++ Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
++ Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
++ Relation to landmark: The location relative to a landmark is specified by:
+- Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
+- Specifying the direction and distance from the landmark to the body location.
+Note that BodyLocation is a data type (a reusable structure), not a stand-alone entity. The concept is similar to how a postal address can apply to a person, location, or organization. This contrasts with FHIR's stand-alone BodySite (aka BodyStructure in r4) which 'is not ... intended for describing the type of anatomical location but rather a specific body site on a specific patient' (FHIR 3.5).</t>
+  </si>
+  <si>
     <t>extensible</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/odh/shr/core/vs/LateralityVS</t>
+    <t>http://hl7.org/fhir/us/odh/ValueSet/shr-core-LateralityVS</t>
   </si>
 </sst>
 </file>
@@ -302,7 +319,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ3"/>
+  <dimension ref="A1:AI3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -335,7 +352,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="47.16015625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="52.85546875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
@@ -581,7 +598,7 @@
         <v>43</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -608,11 +625,11 @@
         <v>36</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="X3" s="2"/>
       <c r="Y3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z3" t="s" s="2">
         <v>36</v>
